--- a/reduce/plots/Comparison.xlsx
+++ b/reduce/plots/Comparison.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="96" windowWidth="19008" windowHeight="7512" activeTab="2"/>
+    <workbookView xWindow="96" yWindow="96" windowWidth="19008" windowHeight="7512"/>
   </bookViews>
   <sheets>
     <sheet name="Reduce Float" sheetId="4" r:id="rId1"/>
@@ -157,17 +157,7 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.21474330214734658"/>
-          <c:y val="3.3454987834549879E-2"/>
-          <c:w val="0.62338660882235508"/>
-          <c:h val="0.89035385175393222"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
@@ -586,11 +576,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="114201728"/>
-        <c:axId val="114203264"/>
+        <c:axId val="32032640"/>
+        <c:axId val="32034176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="114201728"/>
+        <c:axId val="32032640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -599,7 +589,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114203264"/>
+        <c:crossAx val="32034176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -607,18 +597,37 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114203264"/>
+        <c:axId val="32034176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>GFLOPs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114201728"/>
+        <c:crossAx val="32032640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1075,11 +1084,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="116055424"/>
-        <c:axId val="116057216"/>
+        <c:axId val="78935168"/>
+        <c:axId val="78936704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="116055424"/>
+        <c:axId val="78935168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1088,7 +1097,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116057216"/>
+        <c:crossAx val="78936704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1096,18 +1105,37 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116057216"/>
+        <c:axId val="78936704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>GFLOPs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116055424"/>
+        <c:crossAx val="78935168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1313,11 +1341,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="115766400"/>
-        <c:axId val="115767936"/>
+        <c:axId val="79059584"/>
+        <c:axId val="79090048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="115766400"/>
+        <c:axId val="79059584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1326,7 +1354,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115767936"/>
+        <c:crossAx val="79090048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1334,7 +1362,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115767936"/>
+        <c:axId val="79090048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1345,7 +1373,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115766400"/>
+        <c:crossAx val="79059584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1384,7 +1412,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -3779,8 +3807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4099,7 +4127,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D18"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4417,7 +4445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
